--- a/frontend/images/Objective Questions Download Template.xlsx
+++ b/frontend/images/Objective Questions Download Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prahalyareddykaluva/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E57535D-03C1-8C43-85C7-42EC184983FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C86779-7BC1-3A4A-BFF2-4F0CF57B3E6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="980" windowWidth="34040" windowHeight="17540" xr2:uid="{5EE45B17-6CCD-BC41-AAB8-0494021B7337}"/>
+    <workbookView xWindow="4160" yWindow="8020" windowWidth="28800" windowHeight="17540" xr2:uid="{5EE45B17-6CCD-BC41-AAB8-0494021B7337}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -96,6 +96,9 @@
     <t>Enter the correct option number (1/2/3/4) - mandatory</t>
   </si>
   <si>
+    <t>Enter the source of the question (optional)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Enter public/private
 </t>
@@ -133,8 +136,11 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
-      <t xml:space="preserve"> - the question will only be stored in your local repo</t>
-    </r>
+      <t xml:space="preserve"> - the question will only be stored in your local repo and only available for you</t>
+    </r>
+  </si>
+  <si>
+    <t>Leave this empty</t>
   </si>
   <si>
     <r>
@@ -143,7 +149,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
-      <t>Enter 1/2/3 (mandatory)</t>
+      <t>Enter 1/2/3 (optional)</t>
     </r>
     <r>
       <rPr>
@@ -161,28 +167,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">Enter 1 (default value) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Don't edit this value</t>
-    </r>
-  </si>
-  <si>
-    <t>Enter the source of the question (optional)</t>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Hint</t>
+  </si>
+  <si>
+    <t>Enter the solution of the question (optional)</t>
+  </si>
+  <si>
+    <t>Enter the hint for the question (optional)</t>
   </si>
 </sst>
 </file>
@@ -566,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65B6463-D760-4F49-82F8-5516CBD6FFDB}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -587,7 +581,7 @@
     <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +615,14 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="114" customHeight="1">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="126" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -645,16 +645,22 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
